--- a/IrisContabilidad/bin/Release/Resources/archivos/catalogo de cuentas ejemplo/catalogo cuentas plantilla.xlsx
+++ b/IrisContabilidad/bin/Release/Resources/archivos/catalogo de cuentas ejemplo/catalogo cuentas plantilla.xlsx
@@ -21,6 +21,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>numero_cuenta</t>
+  </si>
+  <si>
+    <t>codigo_cuenta_superior</t>
+  </si>
+  <si>
+    <t>cuenta_acumulativa</t>
+  </si>
+  <si>
+    <t>cuenta_movimiento</t>
+  </si>
+  <si>
+    <t>origen_credito</t>
+  </si>
+  <si>
+    <t>origen_debito</t>
+  </si>
+  <si>
+    <t>activo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,8 +92,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -336,14 +396,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>